--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5577E26A-CCDB-4CF7-895C-C45F3BDD36E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A26FC-C139-4CDB-B01A-886939B367E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="5085" windowWidth="12690" windowHeight="10365" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Move" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,20 +51,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_2</t>
-  </si>
-  <si>
-    <t>key_3</t>
-  </si>
-  <si>
-    <t>key_4</t>
-  </si>
-  <si>
-    <t>key_5</t>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료시간(이동시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -149,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +144,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,19 +483,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,13 +509,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,73 +531,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-8</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
         <v>2</v>
       </c>
     </row>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A26FC-C139-4CDB-B01A-886939B367E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2415F-7FD6-4981-AB3D-B1066F2393CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DestX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,14 @@
   </si>
   <si>
     <t>완료시간(이동시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,9 +148,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,45 +496,45 @@
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
       </c>
       <c r="B4">
         <v>-10</v>
@@ -544,11 +545,10 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>10</v>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2415F-7FD6-4981-AB3D-B1066F2393CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB430833-21AB-4774-821D-B3669A17B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Move" sheetId="1" r:id="rId1"/>
+    <sheet name="#Move" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB430833-21AB-4774-821D-B3669A17B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED8BED-D1B7-4783-B7BA-85C44E41D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="1410" yWindow="750" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Move" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,26 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightSlow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,16 +568,86 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>-20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>-20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>-20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED8BED-D1B7-4783-B7BA-85C44E41D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19168F31-6DBF-4F0F-AC4F-45C55C700B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="750" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="1485" yWindow="1650" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Move" sheetId="1" r:id="rId1"/>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19168F31-6DBF-4F0F-AC4F-45C55C700B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F311E216-E31E-4817-94C9-09D57BD3545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1650" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="1050" yWindow="855" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Move" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DurationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료시간(이동시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +76,14 @@
   </si>
   <si>
     <t>RightSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +507,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,29 +535,29 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F311E216-E31E-4817-94C9-09D57BD3545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6D34A1-1DC7-4A5B-ABF3-FFC379487035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="855" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="2355" yWindow="855" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Move" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6D34A1-1DC7-4A5B-ABF3-FFC379487035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB430833-21AB-4774-821D-B3669A17B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="855" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Move" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DurationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,39 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>완료시간(이동시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftFast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftSlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightFast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightSlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,119 +515,49 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
         <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB430833-21AB-4774-821D-B3669A17B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6D34A1-1DC7-4A5B-ABF3-FFC379487035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="2355" yWindow="855" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Move" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DurationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,15 +51,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료시간(이동시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -507,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,49 +535,119 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Move.xlsx
+++ b/truck/Table/Move.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truckproject\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6D34A1-1DC7-4A5B-ABF3-FFC379487035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CC829-D336-4A1A-AF7F-102818DB4554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="855" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Move" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
